--- a/Dependencies/school_list.xlsx
+++ b/Dependencies/school_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\PycharmProjects\ChatGPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\PycharmProjects\LLM_SchoolChoice\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2046FE-68DF-4025-9976-BC248956687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C8CAB-E357-4EF9-8C6F-05B0BFD1892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1DCFFCA4-F9AA-4F69-93E3-A355FDC93F66}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <t>Huerta ES (PK-5)</t>
   </si>
   <si>
-    <t>Dolores Huerta Elementary School</t>
-  </si>
-  <si>
     <t>Glen Park ES</t>
   </si>
   <si>
@@ -539,6 +536,9 @@
   </si>
   <si>
     <t>Yick Wo Elementary School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolores Huerta Fairmount Elementary School </t>
   </si>
 </sst>
 </file>
@@ -1401,9 +1401,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54179340-E913-40BC-97F0-4819C50A9D1C}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="45.9453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -2274,7 +2279,7 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="D22">
         <v>37.740459999999999</v>
@@ -2312,10 +2317,10 @@
         <v>575</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
       </c>
       <c r="D23">
         <v>37.733097000000001</v>
@@ -2353,10 +2358,10 @@
         <v>724</v>
       </c>
       <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
       </c>
       <c r="D24">
         <v>37.742204000000001</v>
@@ -2394,10 +2399,10 @@
         <v>539</v>
       </c>
       <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
       <c r="D25">
         <v>37.739685999999999</v>
@@ -2435,10 +2440,10 @@
         <v>680</v>
       </c>
       <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
       </c>
       <c r="D26">
         <v>37.747737999999998</v>
@@ -2476,10 +2481,10 @@
         <v>760</v>
       </c>
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
       </c>
       <c r="D27">
         <v>37.737321999999999</v>
@@ -2494,7 +2499,7 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2517,10 +2522,10 @@
         <v>562</v>
       </c>
       <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
       </c>
       <c r="D28">
         <v>37.802185000000001</v>
@@ -2558,10 +2563,10 @@
         <v>589</v>
       </c>
       <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
         <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
       </c>
       <c r="D29">
         <v>37.763534999999997</v>
@@ -2599,10 +2604,10 @@
         <v>593</v>
       </c>
       <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
         <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
       </c>
       <c r="D30">
         <v>37.710135000000001</v>
@@ -2640,10 +2645,10 @@
         <v>453</v>
       </c>
       <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
         <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
       </c>
       <c r="D31">
         <v>37.717516000000003</v>
@@ -2681,10 +2686,10 @@
         <v>614</v>
       </c>
       <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
         <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
       </c>
       <c r="D32">
         <v>37.728518999999999</v>
@@ -2722,10 +2727,10 @@
         <v>644</v>
       </c>
       <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
         <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
       </c>
       <c r="D33">
         <v>37.763294000000002</v>
@@ -2763,10 +2768,10 @@
         <v>544</v>
       </c>
       <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
         <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
       </c>
       <c r="D34">
         <v>37.758097999999997</v>
@@ -2804,10 +2809,10 @@
         <v>664</v>
       </c>
       <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" t="s">
-        <v>95</v>
       </c>
       <c r="D35">
         <v>37.777056000000002</v>
@@ -2845,10 +2850,10 @@
         <v>670</v>
       </c>
       <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
         <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>97</v>
       </c>
       <c r="D36">
         <v>37.729126000000001</v>
@@ -2886,10 +2891,10 @@
         <v>490</v>
       </c>
       <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
         <v>98</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
       </c>
       <c r="D37">
         <v>37.794079000000004</v>
@@ -2927,10 +2932,10 @@
         <v>676</v>
       </c>
       <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>101</v>
       </c>
       <c r="D38">
         <v>37.758051000000002</v>
@@ -2968,10 +2973,10 @@
         <v>782</v>
       </c>
       <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
         <v>102</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
       </c>
       <c r="D39">
         <v>37.748843999999998</v>
@@ -3009,10 +3014,10 @@
         <v>479</v>
       </c>
       <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
       </c>
       <c r="D40">
         <v>37.787225999999997</v>
@@ -3027,7 +3032,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I40">
         <v>9</v>
@@ -3050,10 +3055,10 @@
         <v>848</v>
       </c>
       <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
       </c>
       <c r="D41">
         <v>37.783602999999999</v>
@@ -3091,10 +3096,10 @@
         <v>691</v>
       </c>
       <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
       </c>
       <c r="D42">
         <v>37.710234999999997</v>
@@ -3132,10 +3137,10 @@
         <v>830</v>
       </c>
       <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" t="s">
-        <v>112</v>
       </c>
       <c r="D43">
         <v>37.734448999999998</v>
@@ -3173,10 +3178,10 @@
         <v>714</v>
       </c>
       <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
         <v>113</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
       </c>
       <c r="D44">
         <v>37.766455000000001</v>
@@ -3214,10 +3219,10 @@
         <v>723</v>
       </c>
       <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
         <v>115</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
       </c>
       <c r="D45">
         <v>37.757109999999997</v>
@@ -3255,10 +3260,10 @@
         <v>549</v>
       </c>
       <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
         <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>118</v>
       </c>
       <c r="D46">
         <v>37.776311</v>
@@ -3296,10 +3301,10 @@
         <v>505</v>
       </c>
       <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
       </c>
       <c r="D47">
         <v>37.758980000000001</v>
@@ -3337,10 +3342,10 @@
         <v>722</v>
       </c>
       <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" t="s">
-        <v>122</v>
       </c>
       <c r="D48">
         <v>37.738587000000003</v>
@@ -3378,10 +3383,10 @@
         <v>729</v>
       </c>
       <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
         <v>123</v>
-      </c>
-      <c r="C49" t="s">
-        <v>124</v>
       </c>
       <c r="D49">
         <v>37.725642000000001</v>
@@ -3419,10 +3424,10 @@
         <v>493</v>
       </c>
       <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
       </c>
       <c r="D50">
         <v>37.726104999999997</v>
@@ -3460,10 +3465,10 @@
         <v>650</v>
       </c>
       <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
         <v>127</v>
-      </c>
-      <c r="C51" t="s">
-        <v>128</v>
       </c>
       <c r="D51">
         <v>37.773724000000001</v>
@@ -3501,10 +3506,10 @@
         <v>735</v>
       </c>
       <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" t="s">
         <v>129</v>
-      </c>
-      <c r="C52" t="s">
-        <v>130</v>
       </c>
       <c r="D52">
         <v>37.773885</v>
@@ -3542,10 +3547,10 @@
         <v>746</v>
       </c>
       <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
         <v>131</v>
-      </c>
-      <c r="C53" t="s">
-        <v>132</v>
       </c>
       <c r="D53">
         <v>37.717208999999997</v>
@@ -3583,10 +3588,10 @@
         <v>638</v>
       </c>
       <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
         <v>133</v>
-      </c>
-      <c r="C54" t="s">
-        <v>134</v>
       </c>
       <c r="D54">
         <v>37.797618</v>
@@ -3624,10 +3629,10 @@
         <v>786</v>
       </c>
       <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
         <v>135</v>
-      </c>
-      <c r="C55" t="s">
-        <v>136</v>
       </c>
       <c r="D55">
         <v>37.783206999999997</v>
@@ -3665,10 +3670,10 @@
         <v>569</v>
       </c>
       <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
         <v>137</v>
-      </c>
-      <c r="C56" t="s">
-        <v>138</v>
       </c>
       <c r="D56">
         <v>37.783853999999998</v>
@@ -3706,10 +3711,10 @@
         <v>790</v>
       </c>
       <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
         <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>140</v>
       </c>
       <c r="D57">
         <v>37.789577999999999</v>
@@ -3747,10 +3752,10 @@
         <v>816</v>
       </c>
       <c r="B58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
         <v>141</v>
-      </c>
-      <c r="C58" t="s">
-        <v>142</v>
       </c>
       <c r="D58">
         <v>37.763460000000002</v>
@@ -3788,10 +3793,10 @@
         <v>656</v>
       </c>
       <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
         <v>143</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
       </c>
       <c r="D59">
         <v>37.736984999999997</v>
@@ -3829,10 +3834,10 @@
         <v>814</v>
       </c>
       <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s">
         <v>145</v>
-      </c>
-      <c r="C60" t="s">
-        <v>146</v>
       </c>
       <c r="D60">
         <v>37.792659999999998</v>
@@ -3870,10 +3875,10 @@
         <v>823</v>
       </c>
       <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" t="s">
         <v>147</v>
-      </c>
-      <c r="C61" t="s">
-        <v>148</v>
       </c>
       <c r="D61">
         <v>37.797801999999997</v>
@@ -3911,10 +3916,10 @@
         <v>820</v>
       </c>
       <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
         <v>149</v>
-      </c>
-      <c r="C62" t="s">
-        <v>150</v>
       </c>
       <c r="D62">
         <v>37.714475999999998</v>
@@ -3952,10 +3957,10 @@
         <v>488</v>
       </c>
       <c r="B63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" t="s">
         <v>151</v>
-      </c>
-      <c r="C63" t="s">
-        <v>152</v>
       </c>
       <c r="D63">
         <v>37.730834999999999</v>
@@ -3993,10 +3998,10 @@
         <v>834</v>
       </c>
       <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" t="s">
-        <v>154</v>
       </c>
       <c r="D64">
         <v>37.794020000000003</v>
@@ -4034,10 +4039,10 @@
         <v>838</v>
       </c>
       <c r="B65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" t="s">
-        <v>156</v>
       </c>
       <c r="D65">
         <v>37.753343000000001</v>
@@ -4075,10 +4080,10 @@
         <v>842</v>
       </c>
       <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" t="s">
         <v>157</v>
-      </c>
-      <c r="C66" t="s">
-        <v>158</v>
       </c>
       <c r="D66">
         <v>37.730288000000002</v>
@@ -4116,10 +4121,10 @@
         <v>750</v>
       </c>
       <c r="B67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" t="s">
         <v>159</v>
-      </c>
-      <c r="C67" t="s">
-        <v>160</v>
       </c>
       <c r="D67">
         <v>37.750593000000002</v>
@@ -4157,10 +4162,10 @@
         <v>513</v>
       </c>
       <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" t="s">
         <v>161</v>
-      </c>
-      <c r="C68" t="s">
-        <v>162</v>
       </c>
       <c r="D68">
         <v>37.727373</v>
@@ -4198,10 +4203,10 @@
         <v>859</v>
       </c>
       <c r="B69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" t="s">
         <v>163</v>
-      </c>
-      <c r="C69" t="s">
-        <v>164</v>
       </c>
       <c r="D69">
         <v>37.781855</v>
@@ -4239,10 +4244,10 @@
         <v>862</v>
       </c>
       <c r="B70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" t="s">
         <v>165</v>
-      </c>
-      <c r="C70" t="s">
-        <v>166</v>
       </c>
       <c r="D70">
         <v>37.737290000000002</v>
@@ -4280,10 +4285,10 @@
         <v>867</v>
       </c>
       <c r="B71" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" t="s">
         <v>167</v>
-      </c>
-      <c r="C71" t="s">
-        <v>168</v>
       </c>
       <c r="D71">
         <v>37.712524999999999</v>
@@ -4321,10 +4326,10 @@
         <v>876</v>
       </c>
       <c r="B72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" t="s">
         <v>169</v>
-      </c>
-      <c r="C72" t="s">
-        <v>170</v>
       </c>
       <c r="D72">
         <v>37.742815999999998</v>
@@ -4362,10 +4367,10 @@
         <v>801</v>
       </c>
       <c r="B73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" t="s">
         <v>171</v>
-      </c>
-      <c r="C73" t="s">
-        <v>172</v>
       </c>
       <c r="D73">
         <v>37.801900000000003</v>
